--- a/subpages/sample/Hawaiian_data/output_for_reference/output_mean_selected.xlsx
+++ b/subpages/sample/Hawaiian_data/output_for_reference/output_mean_selected.xlsx
@@ -1,79 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\yuanchaiyc\website\subpages\audio\word-level\txt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\yuanchaiyc\website\subpages\sample\Hawaiian_data\output_for_reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CA1697-4F41-4D18-A0AA-8F03A35411FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7E468CBE-7876-475F-AC9D-4A0A68EFA132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="output_mean_selected" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
+    <sheet name="vowel chart" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">output_mean_selected!$A$1:$S$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$F$24</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">output_mean_selected!$E$2:$E$24</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">output_mean_selected!$L$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">output_mean_selected!$I$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">output_mean_selected!$I$2:$I$24</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">output_mean_selected!$E$2:$E$24</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">output_mean_selected!$I$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">output_mean_selected!$I$2:$I$24</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">output_mean_selected!$E$2:$E$24</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">output_mean_selected!$I$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">output_mean_selected!$I$2:$I$24</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">output_mean_selected!$E$2:$E$24</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">output_mean_selected!$I$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">output_mean_selected!$L$2:$L$24</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">output_mean_selected!$I$2:$I$24</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">output_mean_selected!$E$2:$E$24</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">output_mean_selected!$H$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">output_mean_selected!$I$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">output_mean_selected!$I$2:$I$24</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">output_mean_selected!$E$2:$E$24</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">output_mean_selected!$M$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">output_mean_selected!$M$2:$M$24</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">output_mean_selected!$E$2:$E$24</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">output_mean_selected!$H$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">output_mean_selected!$I$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">output_mean_selected!$I$2:$I$24</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">output_mean_selected!$E$2:$E$24</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">output_mean_selected!$H$2:$H$24</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">output_mean_selected!$E$2:$E$24</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">output_mean_selected!$H$1</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">output_mean_selected!$H$2:$H$24</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">output_mean_selected!$E$2:$E$24</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">output_mean_selected!$S$1</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">output_mean_selected!$S$2:$S$24</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">output_mean_selected!$H$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">output_mean_selected!$H$2:$H$24</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">output_mean_selected!$L$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">output_mean_selected!$L$2:$L$24</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">output_mean_selected!$E$2:$E$24</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">output_mean_selected!$I$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">output_mean_selected!$I$2:$I$24</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">output_mean_selected!$E$2:$E$24</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">output_mean_selected!$L$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">output_mean_selected!$L$2:$L$24</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -110,16 +67,16 @@
     <t>sF0_mean</t>
   </si>
   <si>
-    <t>pF0_mean</t>
-  </si>
-  <si>
     <t>sF1_mean</t>
   </si>
   <si>
     <t>sF2_mean</t>
   </si>
   <si>
-    <t>sF3_mean</t>
+    <t>pF1_mean</t>
+  </si>
+  <si>
+    <t>pF2_mean</t>
   </si>
   <si>
     <t>soe_mean</t>
@@ -185,16 +142,16 @@
     <t>e</t>
   </si>
   <si>
+    <t>position</t>
+  </si>
+  <si>
     <t>vowel</t>
   </si>
   <si>
-    <t>length</t>
+    <t>duration</t>
   </si>
   <si>
     <t>phonation</t>
-  </si>
-  <si>
-    <t>position</t>
   </si>
   <si>
     <t>f1</t>
@@ -206,7 +163,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -800,7 +757,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B12426E4-74AA-4D9B-9512-7B55541B3FAA}" type="CELLRANGE">
+                    <a:fld id="{A6419291-52BA-4AF1-AF57-D54616B8A1E5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -822,7 +779,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-16BD-4D21-8723-DC0C0A66ED90}"/>
+                  <c16:uniqueId val="{00000000-50A4-450D-A84E-8784F7B1B906}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -833,7 +790,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ED4776EF-5A81-43EF-B3D3-F3D727C75297}" type="CELLRANGE">
+                    <a:fld id="{8C958314-CC2E-4555-85F0-CC7982B92EC0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -855,7 +812,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-16BD-4D21-8723-DC0C0A66ED90}"/>
+                  <c16:uniqueId val="{00000001-50A4-450D-A84E-8784F7B1B906}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -866,7 +823,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DB59777C-9652-4CCD-BD07-5B0FCAD03A70}" type="CELLRANGE">
+                    <a:fld id="{6C754AAC-DB84-4243-99E6-D8836B70A5FC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -888,7 +845,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-16BD-4D21-8723-DC0C0A66ED90}"/>
+                  <c16:uniqueId val="{00000002-50A4-450D-A84E-8784F7B1B906}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -899,7 +856,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C8F58590-10DD-401F-BA3E-CEC00E8C9F36}" type="CELLRANGE">
+                    <a:fld id="{C2A4ED6D-B7DB-48C9-82E1-3B79A94F01E9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -921,7 +878,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-16BD-4D21-8723-DC0C0A66ED90}"/>
+                  <c16:uniqueId val="{00000003-50A4-450D-A84E-8784F7B1B906}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -984,7 +941,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$C$2:$C$5</c:f>
+              <c:f>[1]Sheet3!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1005,7 +962,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$B$2:$B$5</c:f>
+              <c:f>[1]Sheet3!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1028,7 +985,7 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>Sheet3!$A$2:$A$5</c15:f>
+                <c15:f>[1]Sheet3!$A$2:$A$5</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
@@ -1047,7 +1004,7 @@
               </c15:datalabelsRange>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-16BD-4D21-8723-DC0C0A66ED90}"/>
+              <c16:uniqueId val="{00000004-50A4-450D-A84E-8784F7B1B906}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1087,7 +1044,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3C97771C-EB75-4F26-AAA6-AAD23FE5DF5E}" type="CELLRANGE">
+                    <a:fld id="{925164BB-4B2D-43D8-835D-0E2364C0CC41}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1109,7 +1066,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000012-16BD-4D21-8723-DC0C0A66ED90}"/>
+                  <c16:uniqueId val="{00000005-50A4-450D-A84E-8784F7B1B906}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1120,7 +1077,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{365ABD64-3368-481D-AE53-A362C589AB8E}" type="CELLRANGE">
+                    <a:fld id="{8768ACA7-84EF-48A1-AD8C-D682E21115FA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1142,7 +1099,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-16BD-4D21-8723-DC0C0A66ED90}"/>
+                  <c16:uniqueId val="{00000006-50A4-450D-A84E-8784F7B1B906}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1153,7 +1110,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{00DC6B7D-AB1F-432E-8FB8-004932601922}" type="CELLRANGE">
+                    <a:fld id="{A916A1E1-209A-4BDB-B584-6841D6C4EAB9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1175,7 +1132,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000013-16BD-4D21-8723-DC0C0A66ED90}"/>
+                  <c16:uniqueId val="{00000007-50A4-450D-A84E-8784F7B1B906}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1186,7 +1143,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{19FD98B8-BCC1-4D14-9163-6167AE0BE308}" type="CELLRANGE">
+                    <a:fld id="{5E95BFBC-7927-447D-AD5E-BCB9B354702E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1208,7 +1165,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000014-16BD-4D21-8723-DC0C0A66ED90}"/>
+                  <c16:uniqueId val="{00000008-50A4-450D-A84E-8784F7B1B906}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1271,7 +1228,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$C$10:$C$13</c:f>
+              <c:f>[1]Sheet3!$C$10:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1292,7 +1249,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$B$10:$B$13</c:f>
+              <c:f>[1]Sheet3!$B$10:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1315,7 +1272,7 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>Sheet3!$A$10:$A$13</c15:f>
+                <c15:f>[1]Sheet3!$A$10:$A$13</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
@@ -1334,7 +1291,7 @@
               </c15:datalabelsRange>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-16BD-4D21-8723-DC0C0A66ED90}"/>
+              <c16:uniqueId val="{00000009-50A4-450D-A84E-8784F7B1B906}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1633,158 +1590,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.24</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>H1-H2c</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>H1-H2c</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{6DBC958E-CFE5-435E-8149-53F7ADC5DA3A}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.23</cx:f>
-              <cx:v>H1H2c_mean</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.28</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.30</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>H1c</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>H1c</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{5F721333-F609-4647-A7BF-3A03470D703C}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.29</cx:f>
-              <cx:v>H1c_mean</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:solidFill>
-              <a:srgbClr val="0070C0"/>
-            </a:solidFill>
-          </cx:spPr>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-        <cx:numFmt formatCode="General" sourceLinked="0"/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1819,153 +1628,11 @@
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{2871B367-BE73-4838-9050-E4896EE3E049}">
+        <cx:series layoutId="boxWhisker" uniqueId="{4267034A-7A1B-460B-BAA8-F599A49DD71F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.7</cx:f>
               <cx:v>HNR05_mean</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.25</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>F0</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>F0</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{3564E48D-C348-4FA4-BA6E-65AC38056432}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.26</cx:f>
-              <cx:v>strF0_mean</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.34</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.36</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>SoE</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>SoE</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{0F12DFE7-1E32-42D2-8017-70807468C199}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.35</cx:f>
-              <cx:v>soe_mean</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="0"/>
@@ -2069,166 +1736,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
@@ -2745,2066 +2252,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5324,25 +2771,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>162092</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123992</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523040</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>109955</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Chart 1">
+            <xdr:cNvPr id="3" name="Chart 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD00428E-3A9F-0A68-47F6-98C231F6F618}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{211D35E9-375F-C5D5-04CD-EB775DCF9431}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5369,319 +2816,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7477125" y="5165725"/>
-              <a:ext cx="4572000" cy="2435225"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="Chart 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0315EBC-313D-A61E-444C-B00BEE3D369E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2400300" y="5168900"/>
-              <a:ext cx="4572000" cy="1895475"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>130175</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="4" name="Chart 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{984F21D4-EAD8-240B-D7CA-401311B5BEF6}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2397125" y="7864475"/>
-              <a:ext cx="4572000" cy="2743200"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>22225</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>327025</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="5" name="Chart 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65E3F680-63AA-CF65-CAB3-278C4BFE4E39}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7470775" y="7864475"/>
-              <a:ext cx="4572000" cy="2743200"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>473075</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>117475</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>117475</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>98425</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="6" name="Chart 5">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FB5E3B7-E22F-988E-F11D-B6D30E6B65A7}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2384425" y="10982325"/>
+              <a:off x="3771566" y="5638466"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5719,27 +2854,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>536575</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>41275</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>231775</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C848032A-4BB9-274B-CB11-B25FA9BC7E79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45969D4A-B535-49C0-8B5C-1AD30BB78759}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5754,6 +2891,119 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="output_mean_selected"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet4"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>a</v>
+          </cell>
+          <cell r="B2">
+            <v>858.57100000000003</v>
+          </cell>
+          <cell r="C2">
+            <v>1392.1120000000001</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>e</v>
+          </cell>
+          <cell r="B3">
+            <v>526.04</v>
+          </cell>
+          <cell r="C3">
+            <v>2354.096</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>o</v>
+          </cell>
+          <cell r="B4">
+            <v>535.33600000000001</v>
+          </cell>
+          <cell r="C4">
+            <v>1140.8150000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>u</v>
+          </cell>
+          <cell r="B5">
+            <v>456.30399999999997</v>
+          </cell>
+          <cell r="C5">
+            <v>979.30399999999997</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>a</v>
+          </cell>
+          <cell r="B10">
+            <v>845.00900000000001</v>
+          </cell>
+          <cell r="C10">
+            <v>1451.569</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>e</v>
+          </cell>
+          <cell r="B11">
+            <v>547.43399999999997</v>
+          </cell>
+          <cell r="C11">
+            <v>2567.1970000000001</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>o</v>
+          </cell>
+          <cell r="B12">
+            <v>510.94900000000001</v>
+          </cell>
+          <cell r="C12">
+            <v>1350.117</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>u</v>
+          </cell>
+          <cell r="B13">
+            <v>306.60399999999998</v>
+          </cell>
+          <cell r="C13">
+            <v>1308.2909999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6052,20 +3302,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
@@ -6073,16 +3319,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
         <v>38</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -6171,16 +3417,16 @@
         <v>165.48099999999999</v>
       </c>
       <c r="O2">
-        <v>204.76300000000001</v>
+        <v>858.57100000000003</v>
       </c>
       <c r="P2">
-        <v>858.57100000000003</v>
+        <v>1392.1120000000001</v>
       </c>
       <c r="Q2">
-        <v>1392.1120000000001</v>
+        <v>798.58799999999997</v>
       </c>
       <c r="R2">
-        <v>2914.1779999999999</v>
+        <v>1287.316</v>
       </c>
       <c r="S2">
         <v>4.8000000000000001E-2</v>
@@ -6230,16 +3476,16 @@
         <v>103.152</v>
       </c>
       <c r="O3">
-        <v>178.393</v>
+        <v>996.83500000000004</v>
       </c>
       <c r="P3">
-        <v>996.83500000000004</v>
+        <v>1501.2339999999999</v>
       </c>
       <c r="Q3">
-        <v>1501.2339999999999</v>
+        <v>759.93299999999999</v>
       </c>
       <c r="R3">
-        <v>2949.1489999999999</v>
+        <v>1331.52</v>
       </c>
       <c r="S3">
         <v>3.3000000000000002E-2</v>
@@ -6289,16 +3535,16 @@
         <v>187.10599999999999</v>
       </c>
       <c r="O4">
-        <v>187</v>
+        <v>858.375</v>
       </c>
       <c r="P4">
-        <v>858.375</v>
+        <v>1513.068</v>
       </c>
       <c r="Q4">
-        <v>1513.068</v>
+        <v>713.34900000000005</v>
       </c>
       <c r="R4">
-        <v>2813.6909999999998</v>
+        <v>1344.952</v>
       </c>
       <c r="S4">
         <v>3.1E-2</v>
@@ -6348,16 +3594,16 @@
         <v>218.87700000000001</v>
       </c>
       <c r="O5">
-        <v>216.08799999999999</v>
+        <v>263.25</v>
       </c>
       <c r="P5">
-        <v>263.25</v>
+        <v>1681.7860000000001</v>
       </c>
       <c r="Q5">
-        <v>1681.7860000000001</v>
+        <v>447.17200000000003</v>
       </c>
       <c r="R5">
-        <v>2830.0549999999998</v>
+        <v>1602.2909999999999</v>
       </c>
       <c r="S5">
         <v>6.2E-2</v>
@@ -6407,16 +3653,16 @@
         <v>142.08699999999999</v>
       </c>
       <c r="O6">
-        <v>217.821</v>
+        <v>845.00900000000001</v>
       </c>
       <c r="P6">
-        <v>845.00900000000001</v>
+        <v>1451.569</v>
       </c>
       <c r="Q6">
-        <v>1451.569</v>
+        <v>786.34900000000005</v>
       </c>
       <c r="R6">
-        <v>2766</v>
+        <v>1353.3989999999999</v>
       </c>
       <c r="S6">
         <v>3.1E-2</v>
@@ -6466,16 +3712,16 @@
         <v>18.486999999999998</v>
       </c>
       <c r="O7">
-        <v>61.046999999999997</v>
+        <v>986.22299999999996</v>
       </c>
       <c r="P7">
-        <v>986.22299999999996</v>
+        <v>1471.73</v>
       </c>
       <c r="Q7">
-        <v>1471.73</v>
+        <v>755.06899999999996</v>
       </c>
       <c r="R7">
-        <v>2992.328</v>
+        <v>1348.607</v>
       </c>
       <c r="S7">
         <v>4.2000000000000003E-2</v>
@@ -6525,16 +3771,16 @@
         <v>265.83300000000003</v>
       </c>
       <c r="O8">
-        <v>268.11799999999999</v>
+        <v>535.33600000000001</v>
       </c>
       <c r="P8">
-        <v>535.33600000000001</v>
+        <v>1140.8150000000001</v>
       </c>
       <c r="Q8">
-        <v>1140.8150000000001</v>
+        <v>560.20899999999995</v>
       </c>
       <c r="R8">
-        <v>2790.3609999999999</v>
+        <v>1156.6020000000001</v>
       </c>
       <c r="S8">
         <v>3.5000000000000003E-2</v>
@@ -6584,16 +3830,16 @@
         <v>149.78</v>
       </c>
       <c r="O9">
-        <v>240.357</v>
+        <v>456.30399999999997</v>
       </c>
       <c r="P9">
-        <v>456.30399999999997</v>
+        <v>979.30399999999997</v>
       </c>
       <c r="Q9">
-        <v>979.30399999999997</v>
+        <v>521.20899999999995</v>
       </c>
       <c r="R9">
-        <v>2850.5030000000002</v>
+        <v>1684.239</v>
       </c>
       <c r="S9">
         <v>6.3E-2</v>
@@ -6643,16 +3889,16 @@
         <v>188.69499999999999</v>
       </c>
       <c r="O10">
-        <v>190.77099999999999</v>
+        <v>518.63300000000004</v>
       </c>
       <c r="P10">
-        <v>518.63300000000004</v>
+        <v>1033.7180000000001</v>
       </c>
       <c r="Q10">
-        <v>1033.7180000000001</v>
+        <v>541.37400000000002</v>
       </c>
       <c r="R10">
-        <v>2781.886</v>
+        <v>1098.0170000000001</v>
       </c>
       <c r="S10">
         <v>5.6000000000000001E-2</v>
@@ -6702,16 +3948,16 @@
         <v>231.99</v>
       </c>
       <c r="O11">
-        <v>227.261</v>
+        <v>306.60399999999998</v>
       </c>
       <c r="P11">
-        <v>306.60399999999998</v>
+        <v>1308.2909999999999</v>
       </c>
       <c r="Q11">
-        <v>1308.2909999999999</v>
+        <v>392.25900000000001</v>
       </c>
       <c r="R11">
-        <v>2737.0279999999998</v>
+        <v>1643.845</v>
       </c>
       <c r="S11">
         <v>5.3999999999999999E-2</v>
@@ -6761,16 +4007,16 @@
         <v>196.97200000000001</v>
       </c>
       <c r="O12">
-        <v>204.571</v>
+        <v>405.101</v>
       </c>
       <c r="P12">
-        <v>405.101</v>
+        <v>1091.566</v>
       </c>
       <c r="Q12">
-        <v>1091.566</v>
+        <v>487.01799999999997</v>
       </c>
       <c r="R12">
-        <v>2739.59</v>
+        <v>1006.602</v>
       </c>
       <c r="S12">
         <v>5.6000000000000001E-2</v>
@@ -6820,16 +4066,16 @@
         <v>246.76</v>
       </c>
       <c r="O13">
-        <v>242.935</v>
+        <v>344.03199999999998</v>
       </c>
       <c r="P13">
-        <v>344.03199999999998</v>
+        <v>953.78800000000001</v>
       </c>
       <c r="Q13">
-        <v>953.78800000000001</v>
+        <v>401.58600000000001</v>
       </c>
       <c r="R13">
-        <v>2651.1239999999998</v>
+        <v>925.99900000000002</v>
       </c>
       <c r="S13">
         <v>0.08</v>
@@ -6879,16 +4125,16 @@
         <v>239.85400000000001</v>
       </c>
       <c r="O14">
-        <v>237.49600000000001</v>
+        <v>510.94900000000001</v>
       </c>
       <c r="P14">
-        <v>510.94900000000001</v>
+        <v>1350.117</v>
       </c>
       <c r="Q14">
-        <v>1350.117</v>
+        <v>513.98699999999997</v>
       </c>
       <c r="R14">
-        <v>2842.1469999999999</v>
+        <v>1352.202</v>
       </c>
       <c r="S14">
         <v>8.2000000000000003E-2</v>
@@ -6938,16 +4184,16 @@
         <v>127.63800000000001</v>
       </c>
       <c r="O15">
-        <v>161.54300000000001</v>
+        <v>407.39100000000002</v>
       </c>
       <c r="P15">
-        <v>407.39100000000002</v>
+        <v>1010.448</v>
       </c>
       <c r="Q15">
-        <v>1010.448</v>
+        <v>490.82799999999997</v>
       </c>
       <c r="R15">
-        <v>2776.44</v>
+        <v>1179.21</v>
       </c>
       <c r="S15">
         <v>4.1000000000000002E-2</v>
@@ -6997,16 +4243,16 @@
         <v>194.18</v>
       </c>
       <c r="O16">
-        <v>197.20699999999999</v>
+        <v>539.79200000000003</v>
       </c>
       <c r="P16">
-        <v>539.79200000000003</v>
+        <v>1156.249</v>
       </c>
       <c r="Q16">
-        <v>1156.249</v>
+        <v>537.04100000000005</v>
       </c>
       <c r="R16">
-        <v>2828.174</v>
+        <v>1171.9090000000001</v>
       </c>
       <c r="S16">
         <v>6.3E-2</v>
@@ -7056,16 +4302,16 @@
         <v>106.758</v>
       </c>
       <c r="O17">
-        <v>111.874</v>
+        <v>351.29399999999998</v>
       </c>
       <c r="P17">
-        <v>351.29399999999998</v>
+        <v>956.15099999999995</v>
       </c>
       <c r="Q17">
-        <v>956.15099999999995</v>
+        <v>444.202</v>
       </c>
       <c r="R17">
-        <v>2686.6260000000002</v>
+        <v>1416.403</v>
       </c>
       <c r="S17">
         <v>5.8000000000000003E-2</v>
@@ -7115,16 +4361,16 @@
         <v>181.40100000000001</v>
       </c>
       <c r="O18">
-        <v>182.73699999999999</v>
+        <v>526.12</v>
       </c>
       <c r="P18">
-        <v>526.12</v>
+        <v>1225.6980000000001</v>
       </c>
       <c r="Q18">
-        <v>1225.6980000000001</v>
+        <v>565.96</v>
       </c>
       <c r="R18">
-        <v>2848.9</v>
+        <v>1267.17</v>
       </c>
       <c r="S18">
         <v>5.7000000000000002E-2</v>
@@ -7174,16 +4420,16 @@
         <v>208.74299999999999</v>
       </c>
       <c r="O19">
-        <v>201.749</v>
+        <v>316.99200000000002</v>
       </c>
       <c r="P19">
-        <v>316.99200000000002</v>
+        <v>932.096</v>
       </c>
       <c r="Q19">
-        <v>932.096</v>
+        <v>549.82899999999995</v>
       </c>
       <c r="R19">
-        <v>2707.873</v>
+        <v>1849.123</v>
       </c>
       <c r="S19">
         <v>4.1000000000000002E-2</v>
@@ -7194,7 +4440,7 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
         <v>34</v>
@@ -7233,16 +4479,16 @@
         <v>220.51900000000001</v>
       </c>
       <c r="O20">
-        <v>225.44</v>
+        <v>526.04</v>
       </c>
       <c r="P20">
-        <v>526.04</v>
+        <v>2354.096</v>
       </c>
       <c r="Q20">
-        <v>2354.096</v>
+        <v>531.98599999999999</v>
       </c>
       <c r="R20">
-        <v>2925.748</v>
+        <v>2500.6179999999999</v>
       </c>
       <c r="S20">
         <v>7.0000000000000007E-2</v>
@@ -7292,16 +4538,16 @@
         <v>204.98400000000001</v>
       </c>
       <c r="O21">
-        <v>258.98099999999999</v>
+        <v>531.41399999999999</v>
       </c>
       <c r="P21">
-        <v>531.41399999999999</v>
+        <v>2189.4409999999998</v>
       </c>
       <c r="Q21">
-        <v>2189.4409999999998</v>
+        <v>523.07899999999995</v>
       </c>
       <c r="R21">
-        <v>2868.3620000000001</v>
+        <v>1984.2670000000001</v>
       </c>
       <c r="S21">
         <v>4.5999999999999999E-2</v>
@@ -7351,16 +4597,16 @@
         <v>269.471</v>
       </c>
       <c r="O22">
-        <v>277.89600000000002</v>
+        <v>547.43399999999997</v>
       </c>
       <c r="P22">
-        <v>547.43399999999997</v>
+        <v>2567.1970000000001</v>
       </c>
       <c r="Q22">
-        <v>2567.1970000000001</v>
+        <v>551.76499999999999</v>
       </c>
       <c r="R22">
-        <v>2924.1370000000002</v>
+        <v>2308.462</v>
       </c>
       <c r="S22">
         <v>3.3000000000000002E-2</v>
@@ -7410,16 +4656,16 @@
         <v>259.94900000000001</v>
       </c>
       <c r="O23">
-        <v>262.238</v>
+        <v>509.346</v>
       </c>
       <c r="P23">
-        <v>509.346</v>
+        <v>2361.39</v>
       </c>
       <c r="Q23">
-        <v>2361.39</v>
+        <v>544.86400000000003</v>
       </c>
       <c r="R23">
-        <v>2949.12</v>
+        <v>1989.941</v>
       </c>
       <c r="S23">
         <v>7.8E-2</v>
@@ -7469,16 +4715,16 @@
         <v>101.10899999999999</v>
       </c>
       <c r="O24">
-        <v>155.09100000000001</v>
+        <v>435.541</v>
       </c>
       <c r="P24">
-        <v>435.541</v>
+        <v>2216.9110000000001</v>
       </c>
       <c r="Q24">
-        <v>2216.9110000000001</v>
+        <v>518.524</v>
       </c>
       <c r="R24">
-        <v>2882.5239999999999</v>
+        <v>2173.9760000000001</v>
       </c>
       <c r="S24">
         <v>6.9000000000000006E-2</v>
@@ -7491,52 +4737,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F37FD18-3F19-472B-B31A-2B28D5400491}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461B6F09-1B7D-4D41-9767-DEF2285307C8}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED81711F-07A1-42AA-A9D3-2B880F5F5C36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>39</v>
@@ -7637,18 +4849,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E754FCA-F654-4F16-A9D6-D4377CB20BDB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>